--- a/src/test/resources/testData/Master_Sheet.xlsx
+++ b/src/test/resources/testData/Master_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JuneFrameWork\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5973F-0B38-4275-9CAA-602D288F5A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629F685-95E2-4F2B-8E82-61D1ABE937BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,7 +683,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3"/>
     </row>
